--- a/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.5065109503794074</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.156895525585036</v>
+        <v>9.156895525585041</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.916161436521417</v>
+        <v>-7.636643446782767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.00246274428139</v>
+        <v>-6.072621219662306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.211902173231596</v>
+        <v>3.837436115469762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9062378858355233</v>
+        <v>-0.9699545436029893</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.468063710075708</v>
+        <v>-2.11044336328475</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.757478327199945</v>
+        <v>4.779399546721633</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.548090250030033</v>
+        <v>-2.764870768609801</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.669394601535477</v>
+        <v>-2.476804274899058</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.840574632070363</v>
+        <v>6.206966826678693</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.209433232176212</v>
+        <v>0.9287364822759027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.740662704507717</v>
+        <v>3.147196046555368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.90178464538948</v>
+        <v>13.37644376764767</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.280925461919539</v>
+        <v>9.067828200524273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.664980993052319</v>
+        <v>8.105354813575898</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.16789487399449</v>
+        <v>13.63958027798849</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.921624705201696</v>
+        <v>3.863682162812722</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.001939317263234</v>
+        <v>3.91986145022075</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.40410196620597</v>
+        <v>12.56019688934097</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.0195047326209532</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.352613894587579</v>
+        <v>0.3526138945875791</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3237622299450845</v>
+        <v>-0.3122779537371945</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2464869206295477</v>
+        <v>-0.2445574113969863</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1680922494481329</v>
+        <v>0.1460198049481127</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02893614937722662</v>
+        <v>-0.03129968843905723</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07860075991558269</v>
+        <v>-0.06903335189418568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1456511852136439</v>
+        <v>0.1475235022762845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09457462494568156</v>
+        <v>-0.1000801890208912</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0966842937645872</v>
+        <v>-0.08818097869074276</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2117003045023497</v>
+        <v>0.2251649929148993</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05357458582365448</v>
+        <v>0.04930531669235972</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1398195918544203</v>
+        <v>0.1537606315680875</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6900667127203974</v>
+        <v>0.6538077433949291</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.336527140489948</v>
+        <v>0.322361829179419</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2798987744435883</v>
+        <v>0.2929606703138777</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5084047232453663</v>
+        <v>0.5069969613598351</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.166089605497978</v>
+        <v>0.1607991881096447</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.168325668874875</v>
+        <v>0.1593695496058399</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5168761373594845</v>
+        <v>0.5120486110809357</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.094283151269181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.344568312584039</v>
+        <v>8.344568312584041</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.77655496830402</v>
@@ -869,7 +869,7 @@
         <v>3.606706346826039</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>10.62738225374058</v>
+        <v>10.62738225374057</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.978687541501545</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.159429374966059</v>
+        <v>1.518928414342483</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2678071081294405</v>
+        <v>-0.4358689663251542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.857553454311948</v>
+        <v>4.918527242477641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7240079109044648</v>
+        <v>0.5440073253064046</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8723498740879205</v>
+        <v>-0.4644792464750805</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.819241079612426</v>
+        <v>6.528500437621138</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.065806658429569</v>
+        <v>2.300217456715031</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6093557675845688</v>
+        <v>0.811819620841019</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.009243294227158</v>
+        <v>6.948993792365737</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.599667499416324</v>
+        <v>8.40693643863381</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.247499510076353</v>
+        <v>6.778047677482426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.83870442188483</v>
+        <v>12.40102082194401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.922078060466717</v>
+        <v>9.007609059861389</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.589394816118089</v>
+        <v>7.503026537678541</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.77177542041946</v>
+        <v>14.56155337335152</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.589855663401567</v>
+        <v>7.881995312457563</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.932257647697969</v>
+        <v>6.360112635229501</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.23812230024097</v>
+        <v>12.36421988500853</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.198411602482282</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5350703507025755</v>
+        <v>0.5350703507025756</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1789886643948306</v>
@@ -974,7 +974,7 @@
         <v>0.1351517058144451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3982328201460531</v>
+        <v>0.3982328201460527</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2352904032560227</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06879317912780679</v>
+        <v>0.08147969718830458</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01615291379254572</v>
+        <v>-0.02982042170196135</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2682352124366298</v>
+        <v>0.2803722655689571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02148722822181154</v>
+        <v>0.01756904781277494</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03189985079512245</v>
+        <v>-0.01605407747068374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2290269289315309</v>
+        <v>0.217456989171806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09026102102422288</v>
+        <v>0.1022438820690739</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02816002275111274</v>
+        <v>0.03636162901774528</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3154081833990316</v>
+        <v>0.3050742862371069</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.623053589191638</v>
+        <v>0.6052581923486785</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4432320217058511</v>
+        <v>0.4969330484320862</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8411348273118012</v>
+        <v>0.8998468290880975</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3666201673120857</v>
+        <v>0.3684622138827883</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.307175420415584</v>
+        <v>0.307435185302886</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6040938906558264</v>
+        <v>0.5919715128290752</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3785050040294009</v>
+        <v>0.3993852822637103</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3018322012865792</v>
+        <v>0.3308699802684443</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6238711372232749</v>
+        <v>0.6392208975644914</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-8.520613527224807</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.379157171140546</v>
+        <v>-4.379157171140541</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-6.289862876448105</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.19427271273345</v>
+        <v>-10.18475251217291</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.472112394869153</v>
+        <v>-6.485942498339639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1127476876734504</v>
+        <v>0.04378349503243886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.59563267859754</v>
+        <v>-11.4190491582791</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.34462732077366</v>
+        <v>-13.02816955996359</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.270449219024441</v>
+        <v>-9.312530097273093</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.490891320652375</v>
+        <v>-9.501544720473559</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.806974312821932</v>
+        <v>-8.341290844152583</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.260145213931259</v>
+        <v>-3.211844792702409</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.152794291422198</v>
+        <v>-1.832902298833453</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.949683799642363</v>
+        <v>2.011181360479854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.093614601100187</v>
+        <v>9.157855535528832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.913534601017613</v>
+        <v>-1.868677915716871</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.595833896411967</v>
+        <v>-3.515719381853939</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3060918421265492</v>
+        <v>0.2876723139599475</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-3.017214064533543</v>
+        <v>-2.482927085022467</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.254076897556079</v>
+        <v>-1.81974148146202</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.333572875931714</v>
+        <v>3.559952713120834</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2429648816672814</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1248714544426864</v>
+        <v>-0.1248714544426862</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2310478926769463</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4745882201758412</v>
+        <v>-0.4671648993459723</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2970552902422213</v>
+        <v>-0.2992550968430949</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.00509764525226104</v>
+        <v>-0.0001244740508053423</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3077959069532926</v>
+        <v>-0.3058136713881579</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3541458420782209</v>
+        <v>-0.3466069980146477</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2470507672524723</v>
+        <v>-0.2453264629262406</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3271937521806548</v>
+        <v>-0.3313706157127794</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3054303320848473</v>
+        <v>-0.2867885476380239</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1139019607726721</v>
+        <v>-0.1103572029400398</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1199298009186048</v>
+        <v>-0.1007769825928417</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1112073424953794</v>
+        <v>0.1131134758299501</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5343812257627484</v>
+        <v>0.5340556032207643</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.05492669928806575</v>
+        <v>-0.05357878009193082</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1091857450838689</v>
+        <v>-0.1055879646979392</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008467496232701087</v>
+        <v>0.008874980232772868</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1200175253967146</v>
+        <v>-0.1021915783882421</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.09003933878061031</v>
+        <v>-0.07130934991270994</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1310334673583564</v>
+        <v>0.1412572076483379</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.58677898432965</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.90927914655255</v>
+        <v>12.90927914655256</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.330640073938799</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3517806945008777</v>
+        <v>0.4719820953344411</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.605527671043256</v>
+        <v>-2.62129983849513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.195964501624627</v>
+        <v>7.323537205803983</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4052051009792091</v>
+        <v>0.5806079630040927</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.502146280456248</v>
+        <v>-4.816030916459481</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.742621792692781</v>
+        <v>9.301770590779769</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.771682501438241</v>
+        <v>1.443093896201015</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.409726431894106</v>
+        <v>-2.522576266664377</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>9.645964303418243</v>
+        <v>9.170190150588486</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.673977337797526</v>
+        <v>7.601810139310769</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.389598107724999</v>
+        <v>4.480095773923571</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.87624042026015</v>
+        <v>15.22115885894009</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.60644098898868</v>
+        <v>8.733209833359806</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.455797378898781</v>
+        <v>3.266802575957789</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.96978197487383</v>
+        <v>16.39247727395019</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.263496352573982</v>
+        <v>7.224595939777502</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.821695098999597</v>
+        <v>2.71379977971168</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.98124482727487</v>
+        <v>14.82085196700925</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.02153270578716813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4737247195461549</v>
+        <v>0.4737247195461551</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1931568826298164</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01792615704909251</v>
+        <v>0.02162275873992506</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1414574274311826</v>
+        <v>-0.1413413026844228</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3806422445168028</v>
+        <v>0.3916363434141767</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01352164654619816</v>
+        <v>0.02039482345559782</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1573032082389695</v>
+        <v>-0.1628701227976592</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2982822993879715</v>
+        <v>0.3123736981833454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07382872947449409</v>
+        <v>0.06124262396843416</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1034728623467122</v>
+        <v>-0.1096366225747902</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4079321601612228</v>
+        <v>0.3736223495036516</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4894705945784245</v>
+        <v>0.4886741357391375</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2816956100305557</v>
+        <v>0.2988646808348924</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9395300750937361</v>
+        <v>0.9928900752019894</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3414764135932379</v>
+        <v>0.3406866169222573</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1309592005499134</v>
+        <v>0.1269073244335553</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6717602261223323</v>
+        <v>0.656950500615705</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3420132670762753</v>
+        <v>0.347774423613964</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.132033551824296</v>
+        <v>0.1285144740944894</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7244973169291874</v>
+        <v>0.6960444822124583</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.3869034573318164</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.926563002586834</v>
+        <v>7.926563002586828</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.455810121421572</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.150294815302778</v>
+        <v>-1.237788778929974</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.526865253152924</v>
+        <v>-1.587723313466471</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.254861126581851</v>
+        <v>6.255431237372306</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1907595311893892</v>
+        <v>-0.1784097733968676</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.698522622657745</v>
+        <v>-2.705170688389563</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.634360022211786</v>
+        <v>5.979983534029413</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.02730442716042892</v>
+        <v>0.04643484118380481</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.564870039143509</v>
+        <v>-1.41531267540532</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.625640512495395</v>
+        <v>6.660066962874521</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.595903313235435</v>
+        <v>2.541120636687651</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.277920698582861</v>
+        <v>2.151207202235826</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.3332103978547</v>
+        <v>10.4276738856574</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.351313301980554</v>
+        <v>4.143912768356631</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.700211935191287</v>
+        <v>1.657628713856242</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.919505911913044</v>
+        <v>10.09177997204935</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.916543341703782</v>
+        <v>2.962793617745755</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.471323594955071</v>
+        <v>1.571023679146595</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.567509620339742</v>
+        <v>9.547153290126584</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.01325038291686607</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2714630562447088</v>
+        <v>0.2714630562447086</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.0612333083623897</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05966490597592503</v>
+        <v>-0.06592519223569866</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07768743777714557</v>
+        <v>-0.08166504661151822</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3261958523374284</v>
+        <v>0.3260757334358334</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.005756700650504065</v>
+        <v>-0.005596973994057249</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08822900827705732</v>
+        <v>-0.08819084198618753</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1894565402330945</v>
+        <v>0.1980926423999467</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.001481627865902043</v>
+        <v>0.002150598968500491</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.06390535892933581</v>
+        <v>-0.05810027794121975</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2711352231488655</v>
+        <v>0.273821627459454</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1532722565917971</v>
+        <v>0.1502507497872922</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1307047330613376</v>
+        <v>0.1250477349684296</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6033974745494313</v>
+        <v>0.599263845997805</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1556726880528092</v>
+        <v>0.1452552646352333</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06054158533476201</v>
+        <v>0.05838649623262763</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3579633933585334</v>
+        <v>0.3618187678244414</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1266236114592982</v>
+        <v>0.1287286152084293</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06388216740911948</v>
+        <v>0.0684431517203975</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4147559567751444</v>
+        <v>0.4150482257510609</v>
       </c>
     </row>
     <row r="34">
